--- a/ctdpy/tests/test_data/exprapp_april_2020/metadata_20200423_094413/ctd_metadata.xlsx
+++ b/ctdpy/tests/test_data/exprapp_april_2020/metadata_20200423_094413/ctd_metadata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20377"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Utveckling\ctdpy\ctdpy\tests\test_data\exprapp_april_2020\metadata_20200423_094413\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951E0546-15F4-4555-B880-F3ED9E694F00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="570" windowWidth="16935" windowHeight="4050"/>
+    <workbookView xWindow="270" yWindow="570" windowWidth="16935" windowHeight="4050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Förklaring" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="420">
   <si>
     <t>format:</t>
   </si>
@@ -333,417 +339,6 @@
   </si>
   <si>
     <t>SBE09_1387_20200414_1635_77_10_0338.cnv</t>
-  </si>
-  <si>
-    <t>17:34</t>
-  </si>
-  <si>
-    <t>0339</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>5817.70</t>
-  </si>
-  <si>
-    <t>01050.71</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200414_1734_77_10_0339.cnv</t>
-  </si>
-  <si>
-    <t>19:11</t>
-  </si>
-  <si>
-    <t>0340</t>
-  </si>
-  <si>
-    <t>A16</t>
-  </si>
-  <si>
-    <t>5816.05</t>
-  </si>
-  <si>
-    <t>01043.52</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200414_1911_77_10_0340.cnv</t>
-  </si>
-  <si>
-    <t>20:56</t>
-  </si>
-  <si>
-    <t>0341</t>
-  </si>
-  <si>
-    <t>A17</t>
-  </si>
-  <si>
-    <t>5817.09</t>
-  </si>
-  <si>
-    <t>01030.46</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200414_2056_77_10_0341.cnv</t>
-  </si>
-  <si>
-    <t>2020-04-15</t>
-  </si>
-  <si>
-    <t>02:10</t>
-  </si>
-  <si>
-    <t>0342</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>5752.00</t>
-  </si>
-  <si>
-    <t>01117.66</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200415_0210_77_10_0342.cnv</t>
-  </si>
-  <si>
-    <t>07:08</t>
-  </si>
-  <si>
-    <t>0343</t>
-  </si>
-  <si>
-    <t>Fladen</t>
-  </si>
-  <si>
-    <t>5711.48</t>
-  </si>
-  <si>
-    <t>01139.54</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200415_0708_77_10_0343.cnv</t>
-  </si>
-  <si>
-    <t>10:36</t>
-  </si>
-  <si>
-    <t>0344</t>
-  </si>
-  <si>
-    <t>N14</t>
-  </si>
-  <si>
-    <t>5656.34</t>
-  </si>
-  <si>
-    <t>01212.80</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200415_1036_77_10_0344.cnv</t>
-  </si>
-  <si>
-    <t>13:26</t>
-  </si>
-  <si>
-    <t>0345</t>
-  </si>
-  <si>
-    <t>Anholt</t>
-  </si>
-  <si>
-    <t>5640.11</t>
-  </si>
-  <si>
-    <t>01206.63</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200415_1326_77_10_0345.cnv</t>
-  </si>
-  <si>
-    <t>20:02</t>
-  </si>
-  <si>
-    <t>0346</t>
-  </si>
-  <si>
-    <t>W Landskrona</t>
-  </si>
-  <si>
-    <t>5551.97</t>
-  </si>
-  <si>
-    <t>01244.88</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200415_2002_77_10_0346.cnv</t>
-  </si>
-  <si>
-    <t>2020-04-16</t>
-  </si>
-  <si>
-    <t>03:14</t>
-  </si>
-  <si>
-    <t>0347</t>
-  </si>
-  <si>
-    <t>BY1</t>
-  </si>
-  <si>
-    <t>5500.95</t>
-  </si>
-  <si>
-    <t>01318.07</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200416_0314_77_10_0347.cnv</t>
-  </si>
-  <si>
-    <t>06:39</t>
-  </si>
-  <si>
-    <t>0348</t>
-  </si>
-  <si>
-    <t>BY2</t>
-  </si>
-  <si>
-    <t>5458.30</t>
-  </si>
-  <si>
-    <t>01405.87</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200416_0639_77_10_0348.cnv</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>0349</t>
-  </si>
-  <si>
-    <t>Hanobukten</t>
-  </si>
-  <si>
-    <t>5537.10</t>
-  </si>
-  <si>
-    <t>01451.96</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200416_1300_77_10_0349.cnv</t>
-  </si>
-  <si>
-    <t>16:04</t>
-  </si>
-  <si>
-    <t>0350</t>
-  </si>
-  <si>
-    <t>BY4</t>
-  </si>
-  <si>
-    <t>5522.98</t>
-  </si>
-  <si>
-    <t>01520.04</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200416_1604_77_10_0350.cnv</t>
-  </si>
-  <si>
-    <t>19:15</t>
-  </si>
-  <si>
-    <t>0351</t>
-  </si>
-  <si>
-    <t>BY5</t>
-  </si>
-  <si>
-    <t>5515.00</t>
-  </si>
-  <si>
-    <t>01559.05</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200416_1915_77_10_0351.cnv</t>
-  </si>
-  <si>
-    <t>2020-04-17</t>
-  </si>
-  <si>
-    <t>04:38</t>
-  </si>
-  <si>
-    <t>0352</t>
-  </si>
-  <si>
-    <t>BCSIII-10</t>
-  </si>
-  <si>
-    <t>5533.32</t>
-  </si>
-  <si>
-    <t>01824.01</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200417_0438_77_10_0352.cnv</t>
-  </si>
-  <si>
-    <t>13:28</t>
-  </si>
-  <si>
-    <t>0353</t>
-  </si>
-  <si>
-    <t>BY10</t>
-  </si>
-  <si>
-    <t>5638.01</t>
-  </si>
-  <si>
-    <t>01935.00</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200417_1328_77_10_0353.cnv</t>
-  </si>
-  <si>
-    <t>18:57</t>
-  </si>
-  <si>
-    <t>0354</t>
-  </si>
-  <si>
-    <t>BY15</t>
-  </si>
-  <si>
-    <t>5718.72</t>
-  </si>
-  <si>
-    <t>02004.57</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200417_1857_77_10_0354.cnv</t>
-  </si>
-  <si>
-    <t>2020-04-18</t>
-  </si>
-  <si>
-    <t>04:09</t>
-  </si>
-  <si>
-    <t>0355</t>
-  </si>
-  <si>
-    <t>Ostergarnsholm</t>
-  </si>
-  <si>
-    <t>5725.30</t>
-  </si>
-  <si>
-    <t>01859.73</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200418_0409_77_10_0355.cnv</t>
-  </si>
-  <si>
-    <t>08:46</t>
-  </si>
-  <si>
-    <t>0356</t>
-  </si>
-  <si>
-    <t>BY20</t>
-  </si>
-  <si>
-    <t>5759.96</t>
-  </si>
-  <si>
-    <t>01952.80</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200418_0846_77_10_0356.cnv</t>
-  </si>
-  <si>
-    <t>15:55</t>
-  </si>
-  <si>
-    <t>0357</t>
-  </si>
-  <si>
-    <t>BY32</t>
-  </si>
-  <si>
-    <t>5801.00</t>
-  </si>
-  <si>
-    <t>01759.06</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200418_1555_77_10_0357.cnv</t>
-  </si>
-  <si>
-    <t>22:16</t>
-  </si>
-  <si>
-    <t>0358</t>
-  </si>
-  <si>
-    <t>BY38</t>
-  </si>
-  <si>
-    <t>5706.99</t>
-  </si>
-  <si>
-    <t>01740.11</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200418_2216_77_10_0358.cnv</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>06:04</t>
-  </si>
-  <si>
-    <t>0359</t>
-  </si>
-  <si>
-    <t>BY39</t>
-  </si>
-  <si>
-    <t>5606.92</t>
-  </si>
-  <si>
-    <t>01632.09</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200419_0604_77_10_0359.cnv</t>
-  </si>
-  <si>
-    <t>08:54</t>
-  </si>
-  <si>
-    <t>0360</t>
-  </si>
-  <si>
-    <t>Ref M1V1</t>
-  </si>
-  <si>
-    <t>5622.27</t>
-  </si>
-  <si>
-    <t>01612.10</t>
-  </si>
-  <si>
-    <t>SBE09_1387_20200419_0854_77_10_0360.cnv</t>
   </si>
   <si>
     <t>INSTRUMENT_PROD</t>
@@ -1694,8 +1289,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1804,6 +1399,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2093,16 +1691,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2110,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2118,12 +1716,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +1729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2139,7 +1737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2147,7 +1745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2155,7 +1753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2163,17 +1761,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2187,7 +1785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2201,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2215,7 +1813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2229,7 +1827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2243,7 +1841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2257,7 +1855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2265,13 +1863,13 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>555</v>
+        <v>418</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2279,10 +1877,10 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -2290,13 +1888,13 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>556</v>
+        <v>419</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2310,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -2324,7 +1922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -2335,16 +1933,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AH28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -2448,7 +2046,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>79</v>
       </c>
@@ -2498,7 +2096,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>79</v>
       </c>
@@ -2548,7 +2146,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>79</v>
       </c>
@@ -2595,1106 +2193,6 @@
         <v>104</v>
       </c>
       <c r="AH6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" t="s">
-        <v>112</v>
-      </c>
-      <c r="N8" t="s">
-        <v>113</v>
-      </c>
-      <c r="O8" t="s">
-        <v>114</v>
-      </c>
-      <c r="P8" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" t="s">
-        <v>117</v>
-      </c>
-      <c r="K9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N9" t="s">
-        <v>119</v>
-      </c>
-      <c r="O9" t="s">
-        <v>120</v>
-      </c>
-      <c r="P9" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" t="s">
-        <v>125</v>
-      </c>
-      <c r="N10" t="s">
-        <v>126</v>
-      </c>
-      <c r="O10" t="s">
-        <v>127</v>
-      </c>
-      <c r="P10" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" t="s">
-        <v>130</v>
-      </c>
-      <c r="K11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" t="s">
-        <v>131</v>
-      </c>
-      <c r="N11" t="s">
-        <v>132</v>
-      </c>
-      <c r="O11" t="s">
-        <v>133</v>
-      </c>
-      <c r="P11" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" t="s">
-        <v>85</v>
-      </c>
-      <c r="M12" t="s">
-        <v>137</v>
-      </c>
-      <c r="N12" t="s">
-        <v>138</v>
-      </c>
-      <c r="O12" t="s">
-        <v>139</v>
-      </c>
-      <c r="P12" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N13" t="s">
-        <v>144</v>
-      </c>
-      <c r="O13" t="s">
-        <v>145</v>
-      </c>
-      <c r="P13" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" t="s">
-        <v>148</v>
-      </c>
-      <c r="K14" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" t="s">
-        <v>149</v>
-      </c>
-      <c r="N14" t="s">
-        <v>150</v>
-      </c>
-      <c r="O14" t="s">
-        <v>151</v>
-      </c>
-      <c r="P14" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" t="s">
-        <v>85</v>
-      </c>
-      <c r="M15" t="s">
-        <v>156</v>
-      </c>
-      <c r="N15" t="s">
-        <v>157</v>
-      </c>
-      <c r="O15" t="s">
-        <v>158</v>
-      </c>
-      <c r="P15" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" t="s">
-        <v>161</v>
-      </c>
-      <c r="K16" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M16" t="s">
-        <v>162</v>
-      </c>
-      <c r="N16" t="s">
-        <v>163</v>
-      </c>
-      <c r="O16" t="s">
-        <v>164</v>
-      </c>
-      <c r="P16" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="2:34">
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" t="s">
-        <v>167</v>
-      </c>
-      <c r="K17" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" t="s">
-        <v>168</v>
-      </c>
-      <c r="N17" t="s">
-        <v>169</v>
-      </c>
-      <c r="O17" t="s">
-        <v>170</v>
-      </c>
-      <c r="P17" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="2:34">
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" t="s">
-        <v>173</v>
-      </c>
-      <c r="K18" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" t="s">
-        <v>174</v>
-      </c>
-      <c r="N18" t="s">
-        <v>175</v>
-      </c>
-      <c r="O18" t="s">
-        <v>176</v>
-      </c>
-      <c r="P18" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="2:34">
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" t="s">
-        <v>179</v>
-      </c>
-      <c r="K19" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" t="s">
-        <v>85</v>
-      </c>
-      <c r="M19" t="s">
-        <v>180</v>
-      </c>
-      <c r="N19" t="s">
-        <v>181</v>
-      </c>
-      <c r="O19" t="s">
-        <v>182</v>
-      </c>
-      <c r="P19" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="2:34">
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" t="s">
-        <v>185</v>
-      </c>
-      <c r="H20" t="s">
-        <v>186</v>
-      </c>
-      <c r="K20" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M20" t="s">
-        <v>187</v>
-      </c>
-      <c r="N20" t="s">
-        <v>188</v>
-      </c>
-      <c r="O20" t="s">
-        <v>189</v>
-      </c>
-      <c r="P20" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="2:34">
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" t="s">
-        <v>185</v>
-      </c>
-      <c r="H21" t="s">
-        <v>192</v>
-      </c>
-      <c r="K21" t="s">
-        <v>84</v>
-      </c>
-      <c r="L21" t="s">
-        <v>85</v>
-      </c>
-      <c r="M21" t="s">
-        <v>193</v>
-      </c>
-      <c r="N21" t="s">
-        <v>194</v>
-      </c>
-      <c r="O21" t="s">
-        <v>195</v>
-      </c>
-      <c r="P21" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="2:34">
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" t="s">
-        <v>185</v>
-      </c>
-      <c r="H22" t="s">
-        <v>198</v>
-      </c>
-      <c r="K22" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N22" t="s">
-        <v>200</v>
-      </c>
-      <c r="O22" t="s">
-        <v>201</v>
-      </c>
-      <c r="P22" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="2:34">
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" t="s">
-        <v>204</v>
-      </c>
-      <c r="H23" t="s">
-        <v>205</v>
-      </c>
-      <c r="K23" t="s">
-        <v>84</v>
-      </c>
-      <c r="L23" t="s">
-        <v>85</v>
-      </c>
-      <c r="M23" t="s">
-        <v>206</v>
-      </c>
-      <c r="N23" t="s">
-        <v>207</v>
-      </c>
-      <c r="O23" t="s">
-        <v>208</v>
-      </c>
-      <c r="P23" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>210</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="2:34">
-      <c r="B24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" t="s">
-        <v>204</v>
-      </c>
-      <c r="H24" t="s">
-        <v>211</v>
-      </c>
-      <c r="K24" t="s">
-        <v>84</v>
-      </c>
-      <c r="L24" t="s">
-        <v>85</v>
-      </c>
-      <c r="M24" t="s">
-        <v>212</v>
-      </c>
-      <c r="N24" t="s">
-        <v>213</v>
-      </c>
-      <c r="O24" t="s">
-        <v>214</v>
-      </c>
-      <c r="P24" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="2:34">
-      <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" t="s">
-        <v>204</v>
-      </c>
-      <c r="H25" t="s">
-        <v>217</v>
-      </c>
-      <c r="K25" t="s">
-        <v>84</v>
-      </c>
-      <c r="L25" t="s">
-        <v>85</v>
-      </c>
-      <c r="M25" t="s">
-        <v>218</v>
-      </c>
-      <c r="N25" t="s">
-        <v>219</v>
-      </c>
-      <c r="O25" t="s">
-        <v>220</v>
-      </c>
-      <c r="P25" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="2:34">
-      <c r="B26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" t="s">
-        <v>204</v>
-      </c>
-      <c r="H26" t="s">
-        <v>223</v>
-      </c>
-      <c r="K26" t="s">
-        <v>84</v>
-      </c>
-      <c r="L26" t="s">
-        <v>85</v>
-      </c>
-      <c r="M26" t="s">
-        <v>224</v>
-      </c>
-      <c r="N26" t="s">
-        <v>225</v>
-      </c>
-      <c r="O26" t="s">
-        <v>226</v>
-      </c>
-      <c r="P26" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="2:34">
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" t="s">
-        <v>229</v>
-      </c>
-      <c r="H27" t="s">
-        <v>230</v>
-      </c>
-      <c r="K27" t="s">
-        <v>84</v>
-      </c>
-      <c r="L27" t="s">
-        <v>85</v>
-      </c>
-      <c r="M27" t="s">
-        <v>231</v>
-      </c>
-      <c r="N27" t="s">
-        <v>232</v>
-      </c>
-      <c r="O27" t="s">
-        <v>233</v>
-      </c>
-      <c r="P27" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="2:34">
-      <c r="B28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" t="s">
-        <v>229</v>
-      </c>
-      <c r="H28" t="s">
-        <v>236</v>
-      </c>
-      <c r="K28" t="s">
-        <v>84</v>
-      </c>
-      <c r="L28" t="s">
-        <v>85</v>
-      </c>
-      <c r="M28" t="s">
-        <v>237</v>
-      </c>
-      <c r="N28" t="s">
-        <v>238</v>
-      </c>
-      <c r="O28" t="s">
-        <v>239</v>
-      </c>
-      <c r="P28" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3704,16 +2202,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -3721,102 +2219,102 @@
         <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>243</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>244</v>
+        <v>107</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>245</v>
+        <v>108</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>248</v>
+        <v>111</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>249</v>
+        <v>112</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>250</v>
+        <v>113</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>251</v>
+        <v>114</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>253</v>
+        <v>116</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>254</v>
+        <v>117</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>255</v>
+        <v>118</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>256</v>
+        <v>119</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>257</v>
+        <v>120</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>258</v>
+        <v>121</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H4" t="s">
-        <v>423</v>
+        <v>286</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>424</v>
+        <v>287</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>425</v>
+        <v>288</v>
       </c>
       <c r="K4" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="L4" t="s">
-        <v>426</v>
+        <v>289</v>
       </c>
       <c r="M4" t="s">
-        <v>427</v>
+        <v>290</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="4"/>
@@ -3827,824 +2325,824 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H5" t="s">
-        <v>429</v>
+        <v>292</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>431</v>
+        <v>294</v>
       </c>
       <c r="K5" t="s">
-        <v>432</v>
+        <v>295</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>433</v>
+        <v>296</v>
       </c>
       <c r="O5" t="s">
-        <v>434</v>
+        <v>297</v>
       </c>
       <c r="P5" s="3">
         <v>1044</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>435</v>
+        <v>298</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>436</v>
+        <v>299</v>
       </c>
       <c r="S5" t="s">
-        <v>437</v>
+        <v>300</v>
       </c>
       <c r="T5" t="s">
-        <v>438</v>
+        <v>301</v>
       </c>
       <c r="U5">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H6" t="s">
-        <v>439</v>
+        <v>302</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>440</v>
+        <v>303</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>441</v>
+        <v>304</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>442</v>
+        <v>305</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="7" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>443</v>
+        <v>306</v>
       </c>
       <c r="P6" s="3">
         <v>3941</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>444</v>
+        <v>307</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>436</v>
+        <v>299</v>
       </c>
       <c r="S6" t="s">
-        <v>445</v>
+        <v>308</v>
       </c>
       <c r="T6" t="s">
-        <v>446</v>
+        <v>309</v>
       </c>
       <c r="U6">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H7" t="s">
-        <v>447</v>
+        <v>310</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>448</v>
+        <v>311</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>449</v>
+        <v>312</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>442</v>
+        <v>305</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="7" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>443</v>
+        <v>306</v>
       </c>
       <c r="P7" s="3">
         <v>3943</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>444</v>
+        <v>307</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>436</v>
+        <v>299</v>
       </c>
       <c r="S7" t="s">
-        <v>445</v>
+        <v>308</v>
       </c>
       <c r="T7" t="s">
-        <v>446</v>
+        <v>309</v>
       </c>
       <c r="U7">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H8" t="s">
-        <v>450</v>
+        <v>313</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>451</v>
+        <v>314</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>452</v>
+        <v>315</v>
       </c>
       <c r="K8" t="s">
-        <v>453</v>
+        <v>316</v>
       </c>
       <c r="L8" t="s">
-        <v>426</v>
+        <v>289</v>
       </c>
       <c r="M8" t="s">
-        <v>454</v>
+        <v>317</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="4"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="11" t="s">
-        <v>455</v>
+        <v>318</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H9" t="s">
-        <v>457</v>
+        <v>320</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>458</v>
+        <v>321</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>459</v>
+        <v>322</v>
       </c>
       <c r="K9" t="s">
-        <v>453</v>
+        <v>316</v>
       </c>
       <c r="L9" t="s">
-        <v>426</v>
+        <v>289</v>
       </c>
       <c r="M9" t="s">
-        <v>454</v>
+        <v>317</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="4"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="11" t="s">
-        <v>455</v>
+        <v>318</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H10" t="s">
-        <v>460</v>
+        <v>323</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>461</v>
+        <v>324</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>462</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>463</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>464</v>
+        <v>327</v>
       </c>
       <c r="P10" s="3">
         <v>5351</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>465</v>
+        <v>328</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>466</v>
+        <v>329</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>467</v>
+        <v>330</v>
       </c>
       <c r="T10" t="s">
-        <v>468</v>
+        <v>331</v>
       </c>
       <c r="U10">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H11" t="s">
-        <v>469</v>
+        <v>332</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>470</v>
+        <v>333</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>471</v>
+        <v>334</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>463</v>
+        <v>326</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>464</v>
+        <v>327</v>
       </c>
       <c r="P11" s="3">
         <v>5355</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>465</v>
+        <v>328</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>466</v>
+        <v>329</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>467</v>
+        <v>330</v>
       </c>
       <c r="T11" t="s">
-        <v>468</v>
+        <v>331</v>
       </c>
       <c r="U11">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H12" t="s">
-        <v>472</v>
+        <v>335</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>473</v>
+        <v>336</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>474</v>
+        <v>337</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>475</v>
+        <v>338</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>476</v>
+        <v>339</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>477</v>
+        <v>340</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>478</v>
+        <v>341</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>479</v>
+        <v>342</v>
       </c>
       <c r="S12" t="s">
-        <v>480</v>
+        <v>343</v>
       </c>
       <c r="T12" t="s">
-        <v>481</v>
+        <v>344</v>
       </c>
       <c r="U12">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H13" t="s">
-        <v>482</v>
+        <v>345</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>483</v>
+        <v>346</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>484</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>475</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>476</v>
+        <v>339</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>485</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>486</v>
+        <v>349</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>479</v>
+        <v>342</v>
       </c>
       <c r="S13" t="s">
-        <v>480</v>
+        <v>343</v>
       </c>
       <c r="T13" t="s">
-        <v>481</v>
+        <v>344</v>
       </c>
       <c r="U13">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H14" t="s">
-        <v>487</v>
+        <v>350</v>
       </c>
       <c r="I14" t="s">
-        <v>488</v>
+        <v>351</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>489</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>490</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7" t="s">
-        <v>491</v>
+        <v>354</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>492</v>
+        <v>355</v>
       </c>
       <c r="P14" s="3">
         <v>70374</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>493</v>
+        <v>356</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>494</v>
+        <v>357</v>
       </c>
       <c r="S14" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>496</v>
+        <v>359</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>497</v>
+        <v>360</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>498</v>
+        <v>361</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>499</v>
+        <v>362</v>
       </c>
       <c r="N15" t="s">
-        <v>500</v>
+        <v>363</v>
       </c>
       <c r="O15" t="s">
-        <v>501</v>
+        <v>364</v>
       </c>
       <c r="P15" s="3">
         <v>2288</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>502</v>
+        <v>365</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>436</v>
+        <v>299</v>
       </c>
       <c r="S15" t="s">
-        <v>503</v>
+        <v>366</v>
       </c>
       <c r="T15" t="s">
-        <v>504</v>
+        <v>367</v>
       </c>
       <c r="U15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>505</v>
+        <v>368</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>506</v>
+        <v>369</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>507</v>
+        <v>370</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>508</v>
+        <v>371</v>
       </c>
       <c r="N16" t="s">
-        <v>500</v>
+        <v>363</v>
       </c>
       <c r="O16" t="s">
-        <v>501</v>
+        <v>364</v>
       </c>
       <c r="P16" s="3">
         <v>2288</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>502</v>
+        <v>365</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>436</v>
+        <v>299</v>
       </c>
       <c r="S16" t="s">
-        <v>509</v>
+        <v>372</v>
       </c>
       <c r="T16" t="s">
-        <v>510</v>
+        <v>373</v>
       </c>
       <c r="U16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>511</v>
+        <v>374</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>512</v>
+        <v>375</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>513</v>
+        <v>376</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>514</v>
+        <v>377</v>
       </c>
       <c r="N17" t="s">
-        <v>500</v>
+        <v>363</v>
       </c>
       <c r="O17" t="s">
-        <v>515</v>
+        <v>378</v>
       </c>
       <c r="P17" s="3">
         <v>2290</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>516</v>
+        <v>379</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>436</v>
+        <v>299</v>
       </c>
       <c r="S17" t="s">
-        <v>517</v>
+        <v>380</v>
       </c>
       <c r="T17" t="s">
-        <v>518</v>
+        <v>381</v>
       </c>
       <c r="U17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:22">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H18" t="s">
-        <v>519</v>
+        <v>382</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>520</v>
+        <v>383</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>521</v>
+        <v>384</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="N18" t="s">
-        <v>522</v>
+        <v>385</v>
       </c>
       <c r="O18" t="s">
-        <v>523</v>
+        <v>386</v>
       </c>
       <c r="P18" s="3">
         <v>53447</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>524</v>
+        <v>387</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>525</v>
+        <v>388</v>
       </c>
       <c r="S18" t="s">
-        <v>526</v>
+        <v>389</v>
       </c>
       <c r="T18" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H19" t="s">
-        <v>528</v>
+        <v>391</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>529</v>
+        <v>392</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>530</v>
+        <v>393</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>349</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>426</v>
+        <v>289</v>
       </c>
       <c r="M19" t="s">
-        <v>531</v>
+        <v>394</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="4"/>
@@ -4655,36 +3153,36 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H20" t="s">
-        <v>533</v>
+        <v>396</v>
       </c>
       <c r="I20" t="s">
-        <v>534</v>
+        <v>397</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>535</v>
+        <v>398</v>
       </c>
       <c r="K20" s="2"/>
       <c r="N20" s="5"/>
@@ -4696,40 +3194,40 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H21" t="s">
-        <v>536</v>
+        <v>399</v>
       </c>
       <c r="I21" t="s">
-        <v>537</v>
+        <v>400</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>538</v>
+        <v>401</v>
       </c>
       <c r="K21" s="2"/>
       <c r="N21" s="7" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="O21" t="s">
-        <v>539</v>
+        <v>402</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="6"/>
@@ -4738,42 +3236,42 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
     </row>
-    <row r="22" spans="2:22">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H22" t="s">
-        <v>540</v>
+        <v>403</v>
       </c>
       <c r="I22" t="s">
-        <v>541</v>
+        <v>404</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>542</v>
+        <v>405</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>543</v>
+        <v>406</v>
       </c>
       <c r="L22" t="s">
-        <v>426</v>
+        <v>289</v>
       </c>
       <c r="M22" t="s">
-        <v>454</v>
+        <v>317</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -4784,45 +3282,45 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H23" t="s">
-        <v>545</v>
+        <v>408</v>
       </c>
       <c r="I23" t="s">
-        <v>546</v>
+        <v>409</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>547</v>
+        <v>410</v>
       </c>
       <c r="K23" t="s">
-        <v>543</v>
+        <v>406</v>
       </c>
       <c r="L23" t="s">
-        <v>426</v>
+        <v>289</v>
       </c>
       <c r="M23" t="s">
-        <v>454</v>
+        <v>317</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -4833,45 +3331,45 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H24" t="s">
-        <v>548</v>
+        <v>411</v>
       </c>
       <c r="I24" t="s">
-        <v>549</v>
+        <v>412</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>550</v>
+        <v>413</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>349</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
-        <v>426</v>
+        <v>289</v>
       </c>
       <c r="M24" t="s">
-        <v>551</v>
+        <v>414</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -4882,45 +3380,45 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>420</v>
+        <v>283</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="H25" t="s">
-        <v>552</v>
+        <v>415</v>
       </c>
       <c r="I25" t="s">
-        <v>553</v>
+        <v>416</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>554</v>
+        <v>417</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>349</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s">
-        <v>426</v>
+        <v>289</v>
       </c>
       <c r="M25" t="s">
-        <v>551</v>
+        <v>414</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -4931,7 +3429,7 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" t="s">
-        <v>544</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -4940,23 +3438,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4965,1064 +3463,1064 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>270</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>276</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>289</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>299</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>292</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>301</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>303</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>305</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>306</v>
+        <v>169</v>
       </c>
       <c r="E17" t="s">
-        <v>307</v>
+        <v>170</v>
       </c>
       <c r="F17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>309</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>310</v>
+        <v>173</v>
       </c>
       <c r="E18" t="s">
-        <v>311</v>
+        <v>174</v>
       </c>
       <c r="F18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c r="E19" t="s">
-        <v>315</v>
+        <v>178</v>
       </c>
       <c r="F19" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="E20" t="s">
-        <v>319</v>
+        <v>182</v>
       </c>
       <c r="F20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>319</v>
+        <v>182</v>
       </c>
       <c r="F21" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
-        <v>323</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="E23" t="s">
-        <v>327</v>
+        <v>190</v>
       </c>
       <c r="F23" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>329</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c r="E24" t="s">
-        <v>315</v>
+        <v>178</v>
       </c>
       <c r="F24" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>331</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
         <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="F25" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>333</v>
+        <v>196</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="F26" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>335</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c r="E27" t="s">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c r="F27" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
-        <v>338</v>
+        <v>201</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="F28" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>340</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>292</v>
+        <v>155</v>
       </c>
       <c r="E29" t="s">
-        <v>293</v>
+        <v>156</v>
       </c>
       <c r="F29" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>342</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s">
         <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c r="E30" t="s">
-        <v>315</v>
+        <v>178</v>
       </c>
       <c r="F30" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>344</v>
+        <v>207</v>
       </c>
       <c r="F32" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>346</v>
+        <v>209</v>
       </c>
       <c r="C33" t="s">
         <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="F33" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>348</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s">
         <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>349</v>
+        <v>212</v>
       </c>
       <c r="E34" t="s">
-        <v>307</v>
+        <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>351</v>
+        <v>214</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>352</v>
+        <v>215</v>
       </c>
       <c r="E35" t="s">
-        <v>353</v>
+        <v>216</v>
       </c>
       <c r="F35" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>355</v>
+        <v>218</v>
       </c>
       <c r="C36" t="s">
         <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>311</v>
+        <v>174</v>
       </c>
       <c r="F36" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>358</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s">
         <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="C38" t="s">
         <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="F38" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>362</v>
+        <v>225</v>
       </c>
       <c r="C39" t="s">
         <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="F39" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>364</v>
+        <v>227</v>
       </c>
       <c r="C40" t="s">
         <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="F40" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>366</v>
+        <v>229</v>
       </c>
       <c r="F42" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>335</v>
+        <v>198</v>
       </c>
       <c r="C43" t="s">
         <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c r="E43" t="s">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c r="F43" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B44" t="s">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="C44" t="s">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c r="E44" t="s">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c r="F44" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>371</v>
+        <v>234</v>
       </c>
       <c r="C45" t="s">
-        <v>243</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c r="F45" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>373</v>
+        <v>236</v>
       </c>
       <c r="C46" t="s">
         <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c r="E46" t="s">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c r="F46" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" t="s">
+        <v>252</v>
+      </c>
+      <c r="E53" t="s">
+        <v>253</v>
+      </c>
+      <c r="F53" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" t="s">
+        <v>199</v>
+      </c>
+      <c r="F56" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" t="s">
+        <v>199</v>
+      </c>
+      <c r="F57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" t="s">
+        <v>199</v>
+      </c>
+      <c r="F60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>271</v>
+      </c>
+      <c r="C62" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" t="s">
+        <v>272</v>
+      </c>
+      <c r="F62" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>274</v>
+      </c>
+      <c r="C63" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" t="s">
+        <v>275</v>
+      </c>
+      <c r="F63" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>277</v>
+      </c>
+      <c r="F65" t="s">
         <v>278</v>
       </c>
-      <c r="B47" t="s">
-        <v>375</v>
-      </c>
-      <c r="C47" t="s">
-        <v>244</v>
-      </c>
-      <c r="D47" t="s">
-        <v>292</v>
-      </c>
-      <c r="E47" t="s">
-        <v>293</v>
-      </c>
-      <c r="F47" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>278</v>
-      </c>
-      <c r="B48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C48" t="s">
-        <v>245</v>
-      </c>
-      <c r="D48" t="s">
-        <v>292</v>
-      </c>
-      <c r="E48" t="s">
-        <v>293</v>
-      </c>
-      <c r="F48" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>278</v>
-      </c>
-      <c r="B49" t="s">
-        <v>379</v>
-      </c>
-      <c r="C49" t="s">
-        <v>246</v>
-      </c>
-      <c r="D49" t="s">
-        <v>314</v>
-      </c>
-      <c r="E49" t="s">
-        <v>315</v>
-      </c>
-      <c r="F49" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>278</v>
-      </c>
-      <c r="B50" t="s">
-        <v>381</v>
-      </c>
-      <c r="C50" t="s">
-        <v>247</v>
-      </c>
-      <c r="D50" t="s">
-        <v>314</v>
-      </c>
-      <c r="E50" t="s">
-        <v>315</v>
-      </c>
-      <c r="F50" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="B51" t="s">
-        <v>383</v>
-      </c>
-      <c r="C51" t="s">
-        <v>384</v>
-      </c>
-      <c r="D51" t="s">
-        <v>283</v>
-      </c>
-      <c r="F51" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>278</v>
-      </c>
-      <c r="B52" t="s">
-        <v>386</v>
-      </c>
-      <c r="C52" t="s">
-        <v>248</v>
-      </c>
-      <c r="D52" t="s">
-        <v>314</v>
-      </c>
-      <c r="E52" t="s">
-        <v>315</v>
-      </c>
-      <c r="F52" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>278</v>
-      </c>
-      <c r="B53" t="s">
-        <v>388</v>
-      </c>
-      <c r="C53" t="s">
-        <v>249</v>
-      </c>
-      <c r="D53" t="s">
-        <v>389</v>
-      </c>
-      <c r="E53" t="s">
-        <v>390</v>
-      </c>
-      <c r="F53" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>278</v>
-      </c>
-      <c r="B54" t="s">
-        <v>392</v>
-      </c>
-      <c r="C54" t="s">
-        <v>250</v>
-      </c>
-      <c r="D54" t="s">
-        <v>314</v>
-      </c>
-      <c r="E54" t="s">
-        <v>315</v>
-      </c>
-      <c r="F54" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>278</v>
-      </c>
-      <c r="B55" t="s">
-        <v>394</v>
-      </c>
-      <c r="C55" t="s">
-        <v>251</v>
-      </c>
-      <c r="D55" t="s">
-        <v>314</v>
-      </c>
-      <c r="E55" t="s">
-        <v>315</v>
-      </c>
-      <c r="F55" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>278</v>
-      </c>
-      <c r="B56" t="s">
-        <v>396</v>
-      </c>
-      <c r="C56" t="s">
-        <v>252</v>
-      </c>
-      <c r="D56" t="s">
-        <v>314</v>
-      </c>
-      <c r="E56" t="s">
-        <v>336</v>
-      </c>
-      <c r="F56" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="B57" t="s">
-        <v>398</v>
-      </c>
-      <c r="C57" t="s">
-        <v>253</v>
-      </c>
-      <c r="D57" t="s">
-        <v>314</v>
-      </c>
-      <c r="E57" t="s">
-        <v>336</v>
-      </c>
-      <c r="F57" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>278</v>
-      </c>
-      <c r="B58" t="s">
-        <v>400</v>
-      </c>
-      <c r="C58" t="s">
-        <v>254</v>
-      </c>
-      <c r="D58" t="s">
-        <v>292</v>
-      </c>
-      <c r="E58" t="s">
-        <v>293</v>
-      </c>
-      <c r="F58" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>278</v>
-      </c>
-      <c r="B59" t="s">
-        <v>402</v>
-      </c>
-      <c r="C59" t="s">
-        <v>255</v>
-      </c>
-      <c r="D59" t="s">
-        <v>314</v>
-      </c>
-      <c r="E59" t="s">
-        <v>315</v>
-      </c>
-      <c r="F59" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>278</v>
-      </c>
-      <c r="B60" t="s">
-        <v>404</v>
-      </c>
-      <c r="C60" t="s">
-        <v>256</v>
-      </c>
-      <c r="D60" t="s">
-        <v>314</v>
-      </c>
-      <c r="E60" t="s">
-        <v>336</v>
-      </c>
-      <c r="F60" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>278</v>
-      </c>
-      <c r="B61" t="s">
-        <v>406</v>
-      </c>
-      <c r="C61" t="s">
-        <v>257</v>
-      </c>
-      <c r="D61" t="s">
-        <v>314</v>
-      </c>
-      <c r="E61" t="s">
-        <v>336</v>
-      </c>
-      <c r="F61" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="B62" t="s">
-        <v>408</v>
-      </c>
-      <c r="C62" t="s">
-        <v>258</v>
-      </c>
-      <c r="D62" t="s">
-        <v>314</v>
-      </c>
-      <c r="E62" t="s">
-        <v>409</v>
-      </c>
-      <c r="F62" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="B63" t="s">
-        <v>411</v>
-      </c>
-      <c r="C63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D63" t="s">
-        <v>314</v>
-      </c>
-      <c r="E63" t="s">
-        <v>412</v>
-      </c>
-      <c r="F63" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" t="s">
-        <v>414</v>
-      </c>
-      <c r="F65" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>416</v>
+        <v>279</v>
       </c>
       <c r="D66" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c r="E66" t="s">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c r="F66" t="s">
-        <v>417</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
